--- a/loaded_influencer_data/tukim.n/tukim.n_video.xlsx
+++ b/loaded_influencer_data/tukim.n/tukim.n_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,46 +506,45 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tukim.n/video/7474993002398649622</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7459551953555705110</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>963</v>
+        <v>3990</v>
       </c>
       <c r="C2" t="n">
-        <v>165</v>
+        <v>298</v>
       </c>
       <c r="D2" t="n">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Joined this trend a little bit late w my “Marshmallow Toast” lenses from @moodylenses 💕
-Use tukim20 to get 20% off all contact lenses 💗</t>
+          <t>이건 미쳤어, 전혀 과장되지 않았어, 난 정말 사랑에 빠졌어 1127090462 | 야광 통기성 잡티 밤 쉐이드 1 YesStyle에서 $$$ 할인을 받으려면 내 코드 MILKYSKIN11을 사용하십시오. 🥰</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>26.99896157840083</v>
+        <v>10.27568922305764</v>
       </c>
       <c r="I2" t="n">
-        <v>17.13395638629283</v>
+        <v>7.468671679197995</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.865005192107997</v>
+        <v>2.807017543859649</v>
       </c>
       <c r="L2" t="n">
-        <v>1.973001038421599</v>
+        <v>0.7769423558897243</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -554,51 +553,50 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-01-14</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tukim.n/video/7459551953555705110</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7449844780122590486</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3929</v>
+        <v>26700</v>
       </c>
       <c r="C3" t="n">
-        <v>297</v>
+        <v>1453</v>
       </c>
       <c r="D3" t="n">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>This was insane, not overhyped at all, I’m absolutely in loveeee @glow
-1127090462 | glow breathable blemish balm shade one</t>
+          <t>제품을 훨씬 더 잘 제어할 수 있고 제품 낭비를 줄일 수 있습니다!! 그리고 나는 또한 안개를 사랑하기 때문에 기본적으로 그것에 대한 단점만 있습니다. 😎</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.40977347925681</v>
+        <v>5.98501872659176</v>
       </c>
       <c r="I3" t="n">
-        <v>7.559175362687706</v>
+        <v>5.441947565543071</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.850598116569102</v>
+        <v>0.5430711610486891</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7890048358360905</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -607,178 +605,174 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2024-12-19</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tukim.n/video/7449844780122590486</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7489082983572393238</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26400</v>
+        <v>678</v>
       </c>
       <c r="C4" t="n">
-        <v>1442</v>
+        <v>126</v>
       </c>
       <c r="D4" t="n">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>This was insane, not overhyped at all, I’m absolutely in loveeee @glow
-1127090462 | glow breathable blemish balm shade one</t>
+          <t>I got the @YSL Beauty Make Me Blush Powder Blush and she is an absolute beauty. Almost too pretty to use omg. I just know I will never throw away this packaging because I am OBSESSED 😍 I got mine from @de Bijenkorf 🥰 #ysl #yslbeauty #yslmakeup #makeup #yslbeautymakeup #yslblush #yvessaintlaurent #yvessaintlaurentbeauty #makemeblush #debijenkorf #blush #fyp</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.011363636363636</v>
+        <v>32.00589970501475</v>
       </c>
       <c r="I4" t="n">
-        <v>5.462121212121212</v>
+        <v>18.58407079646018</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5492424242424242</v>
+        <v>13.42182890855457</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6553030303030303</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>고정됨</t>
-        </is>
+        <v>3.539823008849558</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tukim.n/video/7486968491510123798</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7488446073124523266</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457</v>
+        <v>586</v>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Using the @coxir TXA Mucin Pore Mask Cleanser to make my skin clean 🧼
-#coxir #theskinhouse #amazonfinds</t>
+          <t>글루타티온 나이아신아마이드 바디 로션은 제가 가장 좋아하는 것입니다! 보시다시피 저는 몇 주 동안 그것을 사용하고 있습니다. 그것은 내 피부를 매끄럽고, 부드럽고, 끈적이지 않게 만들고, 꿈처럼 당신의 피부를 미끄러지게 합니다💭 할인 코드:💰 보상 코드: MILKYSKIN11 할인코드 : INF10TUKIM 둘 중 하나를 사용하여 주문에서 2-10% 할인을 받으십시오. 🤍</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>34.79212253829322</v>
+        <v>31.56996587030716</v>
       </c>
       <c r="I5" t="n">
-        <v>17.72428884026258</v>
+        <v>17.4061433447099</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.06783369803064</v>
+        <v>14.16382252559727</v>
       </c>
       <c r="L5" t="n">
-        <v>2.844638949671773</v>
+        <v>3.071672354948805</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tukim.n/video/7486200784409922818</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7488104887629253910</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>475</v>
+        <v>992</v>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>I got the Meditherapy Shumage Gold Seal Lifting Cream as part of a YesStyle influencer sponsorship, and honestly, it’s pretty impressive. The gold-thread texture is wild — stringy but fun — and it left my skin feeling super hydrated and firm. It’s bougie, but it actually works. Perfect for a little skincare glow-up. You could also pair this with the Meditherapy EMS Device for the best results!!</t>
+          <t>평소 콘텐츠는 아니지만 "콘서트"에 참석하게 되어 너무 자랑스럽습니다🥹🤍 베트남 아티스트를 응원할 수 있는 큰 승리🥹❤️</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>34.94736842105263</v>
+        <v>12.6008064516129</v>
       </c>
       <c r="I6" t="n">
-        <v>18.94736842105263</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>16</v>
+        <v>2.923387096774194</v>
       </c>
       <c r="L6" t="n">
-        <v>3.789473684210527</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tukim.n/video/7485835438733741334</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7487997804862803222</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>659</v>
+        <v>560</v>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -788,2192 +782,2242 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>평소 콘텐츠는 아니지만 "콘서트"에 참석하게 되어 너무 자랑스럽습니다🥹🤍 베트남 아티스트를 응원할 수 있는 큰 승리🥹❤️</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.678571428571428</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7487365822227270934</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>637</v>
+      </c>
+      <c r="C8" t="n">
+        <v>91</v>
+      </c>
+      <c r="D8" t="n">
+        <v>63</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>꽤 잘한 것 같아요🤭 목표는 TXA 무신 모공 마스크 클렌저를 사용하여 최고의 스트레칭을 보여주는 것입니다. 나는 도전에 참여하고 당신이 할 수 있다면 나를 이기려고 노력하고 🤭 이 제품은 아마존에서 구할 수 있습니다 :)))</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>24.17582417582418</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.890109890109891</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.354788069073784</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7486968491510123798</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>712</v>
+      </c>
+      <c r="C9" t="n">
+        <v>105</v>
+      </c>
+      <c r="D9" t="n">
+        <v>89</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Why TECA Capsules are a must-have? 🌿 They calm, cool, and care! The core capsules in Abib's Heartleaf TECA Serum help lower skin temperature for instant relief — perfect after sun or stress. Plus, the portable Trial Kit is ideal for travel or outdoor adventures. Stay fresh, anytime, anywhere! 💚 Get yours on YesStyle with the code ABIB05DRT8 for a discount :) #abib #yesabib #acnejourney #abibcapsuleserum #essence #ampoule #acneserum #acneproneskin #acnescar #redness #blemish #pimple #heartleaf #teca #acnetreatment #kbeauty #koreanskincare #heartleafkit #travelkit #trialkit #fyp</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>27.24719101123596</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.74719101123596</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.230337078651686</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7486200784409922818</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>594</v>
+      </c>
+      <c r="C10" t="n">
+        <v>110</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Using the @coxir TXA Mucin Pore Mask Cleanser to make my skin clean 🧼 #coxir #theskinhouse #amazonfinds #coxirhaul #theskinhousehaul #kbeauty #koreanskincare #skincare #globalamb #coxiramb #tshamb #tranexamicacid #niacinamide #poremask #coxirtxamucinpore #cxtsh_pp</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>34.84848484848485</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16.32996632996633</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.198653198653199</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@tukim.n/video/7485835438733741334</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>659</v>
+      </c>
+      <c r="C11" t="n">
+        <v>93</v>
+      </c>
+      <c r="D11" t="n">
+        <v>84</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>I’m sad 😭😭😭 @House of Hur
 #houseofhur #myshayla #houseofhurblush #sad #funny #fyp #makeup</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H11" t="n">
         <v>26.85887708649469</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I11" t="n">
         <v>14.11229135053111</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>12.74658573596358</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L11" t="n">
         <v>2.276176024279211</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7485279315853184278</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B12" t="n">
         <v>375</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C12" t="n">
         <v>81</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D12" t="n">
         <v>64</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>11</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>So easy to apply, and I feel so much prettier with the @Char Cosmetic lashes 🤭🩷
 Use code tukim15 for 15% off 🩷</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>38.66666666666666</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I12" t="n">
         <v>21.6</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>17.06666666666667</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L12" t="n">
         <v>2.933333333333333</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7484755408419097878</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B13" t="n">
         <v>528</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C13" t="n">
         <v>99</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D13" t="n">
         <v>78</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>20</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Did the skin test from @coxir and I tried the skincare routine first combination and/or normal skin 😍 this was so much fun, loved how my skin felt after this routine</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>33.52272727272727</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I13" t="n">
         <v>18.75</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>14.77272727272727</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L13" t="n">
         <v>3.787878787878788</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7484381053088435478</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B14" t="n">
         <v>518</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C14" t="n">
         <v>103</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D14" t="n">
         <v>63</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>18</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>I got this Miguhara Spotlight Blush Drop in the shade Sugar Fairy as a sponsored product from @YesStyle to give my honest opinion about this. To be honest.. Liquid blushes never work for me for some reason, no matter what I try..</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>32.04633204633205</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>19.88416988416988</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>12.16216216216216</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L14" t="n">
         <v>3.474903474903475</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7483580860290174230</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B15" t="n">
         <v>683</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C15" t="n">
         <v>120</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D15" t="n">
         <v>73</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>27</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Gentle night skincare routine with @redence @Redence_global 🤍🍋
 Available on Amazon</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>28.25768667642753</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I15" t="n">
         <v>17.56954612005856</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>10.68814055636896</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L15" t="n">
         <v>3.953147877013177</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7483229277144485122</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B16" t="n">
         <v>934</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16" t="n">
         <v>149</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D16" t="n">
         <v>88</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>27</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Gentle night skincare routine with @redence @Redence_global 🤍🍋
 Available on Amazon</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>25.37473233404711</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>15.95289079229122</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>9.421841541755889</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L16" t="n">
         <v>2.890792291220557</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7482871103816404246</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B17" t="n">
         <v>611</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17" t="n">
         <v>116</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>83</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>24</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Woaaah this @cellfusioncofficial @Cell Fusion C renewed Laser UV Defense Sunscreen soothes Nd strengthens your skin while still preventing your skin from harmful UV rays. They even won 6 Years Olive Young Award product in Sun Category, so try this out if you haven’t yet 🫶🏻🤭</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>32.56955810147299</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>18.98527004909984</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>13.58428805237316</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L17" t="n">
         <v>3.927986906710311</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7482474515453234454</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B18" t="n">
         <v>1040</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18" t="n">
         <v>186</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>115</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>26</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>A short fast-paced unboxing of the PR I received in March! The month isn’t even over yet but I received so many great products already 🥹 overwhelmed and grateful at the same time bc I can’t believe a brand would want to work with me still :’).</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>28.94230769230769</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>17.88461538461538</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>11.05769230769231</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L18" t="n">
         <v>2.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7482162168813718806</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B19" t="n">
         <v>725</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19" t="n">
         <v>127</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D19" t="n">
         <v>99</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>29</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Put my mom’s hyperpigmentation to the test with @APRILSKIN USA Spicy Jelly Serum &amp; Glazed Creamy Toner. The results are crazyyy 🤭🩷</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>31.17241379310345</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>17.51724137931035</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>13.6551724137931</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L19" t="n">
         <v>4</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7481573499673349398</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B20" t="n">
         <v>767</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20" t="n">
         <v>85</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>58</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>13</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Run don’t walk to @YesStyle for your @Medicube Global devices 🥵 The sale is crazyyy, 25% off with:
 Coupon code: BOOSTER20 / ULTRA20</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>18.64406779661017</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>11.08213820078227</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>7.561929595827902</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L20" t="n">
         <v>1.694915254237288</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7481401276077477142</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B21" t="n">
         <v>607</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C21" t="n">
         <v>123</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D21" t="n">
         <v>84</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>17</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Finally got to try some products from @heimish.cosmetics because of @STYLEKOREAN ! Thank you so much for sending these 🥹😍</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>34.10214168039538</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>20.26359143327842</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>13.83855024711697</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L21" t="n">
         <v>2.800658978583196</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7480993487710702870</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B22" t="n">
         <v>844</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C22" t="n">
         <v>140</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D22" t="n">
         <v>109</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>26</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>@anua_global Heartleaf 70 Soothing Collagen Mask soothes and nourishes sensitive skin &amp; also reduces irritation. I really need this as my skin is breaking outtt 🥲 also has TRIPLE hyaluronic acid to form a moisturizing barrier to keep your skin hydrated 💚</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H22" t="n">
         <v>29.50236966824645</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I22" t="n">
         <v>16.58767772511848</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>12.91469194312796</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L22" t="n">
         <v>3.080568720379147</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7480675174333811990</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B23" t="n">
         <v>1026</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23" t="n">
         <v>114</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D23" t="n">
         <v>78</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>23</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>@aplbofficial_influencers @APLB Global Official love these products from APLB 🩵 such a refreshing line with amazing ingredients</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>18.71345029239766</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I23" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>7.602339181286549</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L23" t="n">
         <v>2.241715399610136</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7480241231163821334</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B24" t="n">
         <v>708</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24" t="n">
         <v>125</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D24" t="n">
         <v>89</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>24</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>I use these ACV liquid sticks every day now because of its convenience 🧃💕 especially if I just ate greasy foodies, it’s amazing to prevent bloating.</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>30.22598870056497</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I24" t="n">
         <v>17.65536723163842</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>12.57062146892655</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L24" t="n">
         <v>3.389830508474576</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7479900323612593430</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>875</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>137</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>120</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>27</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>@네시픽 Nacific Official Rice Pepta Collagen Peel-Off Wrapping Mask shocked me!! At some point I zoomed into my pores, look how they look smaller now!!! 😍👀. Moisturizing, firming, pore care, and boosts skin elasticity. Such a all-in-one product 🤍🍚</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>29.37142857142857</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I25" t="n">
         <v>15.65714285714286</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>13.71428571428572</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L25" t="n">
         <v>3.085714285714286</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7479441780950207766</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B26" t="n">
         <v>902</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C26" t="n">
         <v>149</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D26" t="n">
         <v>114</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>22</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>@delphyr_official this bubble toner is so innovative by using liposome technology. This technology enhances the delivery of active ingredients for your next steps in your routine. I love how it feels so gentle &amp; soft on the skin 🤍.</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H26" t="n">
         <v>29.15742793791574</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I26" t="n">
         <v>16.51884700665189</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>12.63858093126386</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L26" t="n">
         <v>2.439024390243902</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7479132672527322390</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B27" t="n">
         <v>623</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>122</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>69</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>25</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>My faveee products this month, you can get these on Amazon, and it gets delivered so fast 🙂‍↕️ @coxir</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H27" t="n">
         <v>30.65810593900482</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I27" t="n">
         <v>19.58266452648475</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>11.07544141252006</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L27" t="n">
         <v>4.012841091492777</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7478682112024153367</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B28" t="n">
         <v>653</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>132</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>85</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>23</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>@skinfood_global Rice Mask Wash Off, packed with rice bran extract to brighten your complexion ✨ This makes your skin feel so soft, and it smells sooo good, but for people that don’t like heavily scented skincare products, it might be a miss 🥲 . For me it was perfect, and also easy to use, which is always a plus :)</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H28" t="n">
         <v>33.2312404287902</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I28" t="n">
         <v>20.21439509954058</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>13.01684532924962</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L28" t="n">
         <v>3.522205206738132</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/photo/7478290051391180054</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B29" t="n">
         <v>633</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C29" t="n">
         <v>103</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D29" t="n">
         <v>75</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>15</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>love love love these serums 🥹🤍
 YesStyle rewards code: MILKYSKIN11🤍
 @YesStyle @YesStyleInfluencers</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H29" t="n">
         <v>28.12006319115324</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I29" t="n">
         <v>16.27172195892575</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>11.84834123222749</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L29" t="n">
         <v>2.369668246445498</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7478032353877560598</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B30" t="n">
         <v>571</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>99</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
         <v>71</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>15</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Lowkey vibing to this sound featuring @Pyunkang Yul (편강율) Ultimate Calming Solution line 💚 Thank you so much for letting me try these out, I love them and I do like the scent in this hehehe</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H30" t="n">
         <v>29.7723292469352</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I30" t="n">
         <v>17.33800350262697</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>12.43432574430823</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L30" t="n">
         <v>2.626970227670753</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7477636396048534806</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B31" t="n">
         <v>669</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>140</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>107</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>23</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>I loveee the reedleshot 100 sm!!! The way I wake up with soft baby skin every time I use this is amazing 🙂‍↕️💗 AND OMG the pdrn?!? My first time using it and I love the texture and results 😍 will use it more often and cant wait to see the full results hihi</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>36.92077727952167</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I31" t="n">
         <v>20.92675635276532</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>15.99402092675635</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L31" t="n">
         <v>3.43796711509716</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7477219855951826198</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B32" t="n">
         <v>907</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>136</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>104</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>25</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>It’s the @The Skin House Việt Nam Ultra Collagen Dewy &amp; Glow Ampoule Mist. I love to spray it after my skincare to get that extra glowy boost ✨</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H32" t="n">
         <v>26.46085997794929</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I32" t="n">
         <v>14.99448732083793</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>11.46637265711136</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L32" t="n">
         <v>2.756339581036384</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7476880163205156118</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B33" t="n">
         <v>896</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>139</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>99</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>24</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
         <v>26.5625</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>15.51339285714286</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>11.04910714285714</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L33" t="n">
         <v>2.678571428571428</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7476521685617741078</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B34" t="n">
         <v>640</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>126</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D34" t="n">
         <v>92</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>31</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>My hair looks crazy here but I put it in a bun right before this :’).
 Anyways, I usually do not like thick/rich creams but let me tell you.. This cream absorbs so fast into the skin! It shocked me that I would love a consistency like this. It doesn’t feel heavy on the skin at all and it boosts my skin barrier with 3 layers. I loveeee this</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H34" t="n">
         <v>34.0625</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I34" t="n">
         <v>19.6875</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>14.375</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L34" t="n">
         <v>4.84375</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7476185027034844438</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B35" t="n">
         <v>689</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C35" t="n">
         <v>137</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D35" t="n">
         <v>92</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>28</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>These products from Stylevana and I are a perfect match 😌
 They still have #VANAtines discount going on, so get these products on Stylevana with my code INF10TUKIM for 15% off 💗</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H35" t="n">
         <v>33.23657474600871</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I35" t="n">
         <v>19.88388969521045</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>13.35268505079826</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L35" t="n">
         <v>4.063860667634253</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7475793928504003862</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
         <v>725</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>137</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D36" t="n">
         <v>92</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>28</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>These products from Stylevana and I are a perfect match 😌
 They still have #VANAtines discount going on, so get these products on Stylevana with my code INF10TUKIM for 15% off 💗</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H36" t="n">
         <v>31.58620689655172</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I36" t="n">
         <v>18.89655172413793</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>12.68965517241379</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L36" t="n">
         <v>3.862068965517242</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7475376481233800470</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B37" t="n">
         <v>758</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>154</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D37" t="n">
         <v>135</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>37</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>The long awaited review for @mixsoon @mixsoon_official @mixsoon_global . Beyond grateful that I got to try these products out! Everything is so good, and gentle for my acne prone skin :).</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H37" t="n">
         <v>38.12664907651715</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I37" t="n">
         <v>20.31662269129288</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>17.81002638522428</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L37" t="n">
         <v>4.881266490765172</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7474608743787908374</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B38" t="n">
         <v>649</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>123</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D38" t="n">
         <v>86</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>25</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>My new fav ampoule, it is so milky, has many great benefits and gives me that glowy skin 🙂‍↕️
 Get this and use my code 0505FEBAMB on Amazon to get some discount 🤍</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H38" t="n">
         <v>32.20338983050847</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I38" t="n">
         <v>18.95223420647149</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>13.25115562403698</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L38" t="n">
         <v>3.852080123266564</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/photo/7474361162616950038</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B39" t="n">
         <v>1106</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>138</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
         <v>98</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>22</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>moodylenses try on haul 👀💗
 which one suits me the best? i like how it made my eyes look bigger bc its enlarged, and theyre so comfortable to wear. which is important as i also wear lenses myself 🙂‍↕️ btw they’re also available in non-prescription &amp; prescription ◡̈</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H39" t="n">
         <v>21.3381555153707</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I39" t="n">
         <v>12.47739602169982</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>8.860759493670885</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L39" t="n">
         <v>1.989150090415913</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7473967705574411522</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B40" t="n">
         <v>762</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C40" t="n">
         <v>205</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D40" t="n">
         <v>147</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>35</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>moodylenses try on haul 👀💗
 which one suits me the best? i like how it made my eyes look bigger bc its enlarged, and theyre so comfortable to wear. which is important as i also wear lenses myself 🙂‍↕️ btw they’re also available in non-prescription &amp; prescription ◡̈</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>46.19422572178478</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I40" t="n">
         <v>26.90288713910761</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>19.29133858267716</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L40" t="n">
         <v>4.593175853018373</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7473531925781597462</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B41" t="n">
         <v>788</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>143</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D41" t="n">
         <v>103</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>30</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Had such a long school day but was so excited to try out @mimumimu.official ‘s newest release, the Niacindy line. 💛 Niacindy is inspired by Korea’s ‘Cinderella Injection’. This line is specifically designed to brighten the skin and improve elasticity.</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H41" t="n">
         <v>31.21827411167513</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I41" t="n">
         <v>18.14720812182741</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>13.07106598984772</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L41" t="n">
         <v>3.807106598984772</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7473172692292750614</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B42" t="n">
         <v>1029</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>130</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D42" t="n">
         <v>71</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>24</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Keep your skin hydrated and treat your dark spots with the Axis-Y Serum
 Get yours on YesStyle and use my rewards code MILKYSKIN11 for extra discount 🤍</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H42" t="n">
         <v>19.533527696793</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I42" t="n">
         <v>12.63362487852284</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>6.899902818270165</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L42" t="n">
         <v>2.332361516034986</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7472838082748779798</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B43" t="n">
         <v>811</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C43" t="n">
         <v>154</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D43" t="n">
         <v>102</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>34</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Who doesn’t want glass skin? Absolutely love the new masks from Anua, especially the Rice Collagen Masks 🍚🤍</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H43" t="n">
         <v>31.56596794081381</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I43" t="n">
         <v>18.98890258939581</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>12.577065351418</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L43" t="n">
         <v>4.192355117139334</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7472433499048267030</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B44" t="n">
         <v>5895</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>134</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D44" t="n">
         <v>84</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>21</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Love love love the applicator on the renewed @skinnlab @skinnlab_official Bakuchiol Eye Serum! . It feels so nice on the skin ◡̈</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H44" t="n">
         <v>3.6980491942324</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I44" t="n">
         <v>2.273112807463952</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.424936386768448</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L44" t="n">
         <v>0.356234096692112</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7471954815979998486</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B45" t="n">
         <v>698</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C45" t="n">
         <v>134</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D45" t="n">
         <v>84</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>21</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Love love love the applicator on the renewed @skinnlab @skinnlab_official Bakuchiol Eye Serum! . It feels so nice on the skin ◡̈</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H45" t="n">
         <v>31.23209169054441</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I45" t="n">
         <v>19.19770773638968</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>12.03438395415473</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L45" t="n">
         <v>3.008595988538682</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7471628627541642518</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B46" t="n">
         <v>4793</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C46" t="n">
         <v>783</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D46" t="n">
         <v>285</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>136</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>I still can’t believe that all these products are in my room right now. Life feels surreal 🥲 I was waiting on the Mimu Mimu package and I still can’t believe I also got to experience receiving a cute PR box. They even gifted me those cute wrist bands with their logo on it. 🥺 The fact that they were my first brand to collaborate with is truly a full circle moment. And how long I have been wanting and wanting to try mixsoon’s products is craaaazy. I’m truly so happy, so grateful for everything 🤍</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H46" t="n">
         <v>22.28249530565408</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I46" t="n">
         <v>16.33632380554976</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>5.946171500104318</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L46" t="n">
         <v>2.837471312330482</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7470622069806451990</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B47" t="n">
         <v>1216</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C47" t="n">
         <v>138</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D47" t="n">
         <v>85</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>26</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>The cleansing oil is so so lightweight and hydrating at the same time. It really took me by surprise, in a good way! Just don’t forget to emulsify!!!</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H47" t="n">
         <v>18.33881578947368</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I47" t="n">
         <v>11.34868421052632</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>6.990131578947369</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L47" t="n">
         <v>2.138157894736842</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/photo/7470247083837017366</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B48" t="n">
         <v>897</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C48" t="n">
         <v>230</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D48" t="n">
         <v>93</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>35</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Your dark spots don’t stand a chance with this duo ❤️‍🔥
 Products mentioned:
 - Anua Rice 70 + Ceramide Glow Milky Toner</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H48" t="n">
         <v>36.00891861761427</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I48" t="n">
         <v>25.64102564102564</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>10.36789297658863</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L48" t="n">
         <v>3.901895206243032</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7469856301833620758</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B49" t="n">
         <v>1509</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C49" t="n">
         <v>165</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D49" t="n">
         <v>136</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>33</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>I’ve been using @KSECRET Store US @KSECRET GLOBAL ‘s Eye Cream and the results are so goood. As someone that lacks so much sleep (🫠) every single day, it’s important to give my dark circles a much needed boost :’). They’re obviously not fully gone, but my under eyes are much brighter, and makes me look more awake, especially in the morning. 🫶🏻</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>19.94698475811796</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I49" t="n">
         <v>10.93439363817097</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>9.012591119946984</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L49" t="n">
         <v>2.186878727634195</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7469336490217082134</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B50" t="n">
         <v>652</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C50" t="n">
         <v>156</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D50" t="n">
         <v>105</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>23</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Cute-sifying my bag is my favorite thing to do, especially on my @SAMO ONDOH bag 🥹 still so grateful that my bf got me this 🫶🏻</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H50" t="n">
         <v>40.03067484662577</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I50" t="n">
         <v>23.92638036809816</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>16.10429447852761</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L50" t="n">
         <v>3.52760736196319</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@tukim.n/video/7468284247384526102</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B51" t="n">
         <v>832</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C51" t="n">
         <v>283</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
         <v>197</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>37</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Ehm pinch me moment for sure?! 😍😭 I’ve been wanting to try Anua’s products for a while now and I can’t believe</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H51" t="n">
         <v>57.69230769230769</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I51" t="n">
         <v>34.01442307692308</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>23.67788461538461</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L51" t="n">
         <v>4.447115384615385</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tukim.n/video/7467925735760596246</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>773</v>
-      </c>
-      <c r="C48" t="n">
-        <v>146</v>
-      </c>
-      <c r="D48" t="n">
-        <v>112</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>27</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>My friends recommended me these products so I did some skin prep with @coxir @The Skin House Việt Nam and I loved it. 😍</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>33.3764553686934</v>
-      </c>
-      <c r="I48" t="n">
-        <v>18.88745148771022</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14.48900388098318</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.492884864165589</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tukim.n/video/7467661632198495510</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>686</v>
-      </c>
-      <c r="C49" t="n">
-        <v>169</v>
-      </c>
-      <c r="D49" t="n">
-        <v>128</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>20</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>My first brand box omg from @coxir x @The Skin House Việt Nam 😭🫶🏻 got these amazing goodies to try out 😍😍 thank you so much</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>43.29446064139942</v>
-      </c>
-      <c r="I49" t="n">
-        <v>24.63556851311953</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>18.65889212827988</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.915451895043732</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@tukim.n/video/7467307005342911766</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>920</v>
-      </c>
-      <c r="C50" t="n">
-        <v>136</v>
-      </c>
-      <c r="D50" t="n">
-        <v>116</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>25</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>My winter skincare routine with @네시픽 Nacific Official @NACIFIC US 🥛🤍 I absolutely love the cream toner and collagen mask so much, my skin is feeling hydrated and ready for the winter again 🤭 also I used the gel mask on my lips and it’s a game changer fr! My lips feel so hydrated and soft</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>27.39130434782609</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14.78260869565217</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>12.60869565217391</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.717391304347826</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
         </is>
       </c>
     </row>
